--- a/pred_ohlcv/54_21/2020-01-19 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WTC ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-30579.28984301959</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-28608.85934301959</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-38296.78894301959</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-42081.56544301959</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-46115.47284301958</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-46332.30074301958</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-46391.30074301958</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-47594.86024301959</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-49840.48785354591</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-44099.00495354591</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-44106.20045354591</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-44006.20045354591</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-44700.70195354591</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-45773.55945354591</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-45773.55945354591</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-113499.1345535459</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-110244.8336535459</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-110246.0336535459</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-109765.4042535459</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-109766.6042535459</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-113255.3842535459</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-113292.1964535459</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-113962.1583535459</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-114585.6953535459</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-103676.6716535459</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-103387.5382535459</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-91277.8576535459</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-77169.60935354591</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-77175.28275354591</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WTC ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-28608.85934301959</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-38296.78894301959</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-42081.56544301959</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-46115.47284301958</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-46024.55144301958</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-47524.21114301959</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-47524.21114301959</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-47594.86024301959</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-47606.86024301959</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-47829.46024301959</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-47829.46024301959</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-48252.06024301959</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-48930.32264301959</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-49221.27534301959</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-49221.27534301959</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-49672.77534301959</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-48714.1112535459</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-48714.1112535459</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-48716.5112535459</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-48699.8972535459</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-49840.48785354591</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-44099.00495354591</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-44106.20045354591</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-44006.20045354591</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-44700.70195354591</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-44595.95835354591</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-45773.55945354591</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-45773.55945354591</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-49225.19275354591</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-109766.6042535459</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-109765.4042535459</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-109766.6042535459</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-113295.0136535459</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-113292.1964535459</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-113962.1583535459</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-114585.6953535459</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-103676.6716535459</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-91277.8576535459</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-77169.60935354591</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-77175.28275354591</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
